--- a/medicine/Enfance/Ian_McEwan/Ian_McEwan.xlsx
+++ b/medicine/Enfance/Ian_McEwan/Ian_McEwan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian McEwan, né le 21 juin 1948 à Aldershot, est un romancier et scénariste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ian McEwan passe une grande partie de sa jeunesse en Extrême-Orient à Singapour, en Afrique du Nord (en Libye), et en Allemagne, où son père, officier écossais dans l’armée britannique, était en poste. Il fait ses études à l’université du Sussex et l’université d'East Anglia, où il est le premier diplômé du cours d’écriture créative créé par Malcolm Bradbury.
 Dès le début des années 1980, Ian McEwan s’impose sur la scène littéraire britannique avec deux recueils de nouvelles : First Love, Last Rites (1975) et In-Between the Sheets (1978). Ces deux recueils sont traduits de manière incomplète en France en un seul volume intitulé Premier amour, derniers rites. McEwan s’y montre fasciné par la perversion et l’interdit. Il explore tous les fantasmes les plus bizarres de la sexualité, les outrances et les excès auxquels l’amour peut conduire : crimes passionnels, crimes sadiques… Avec lui, le mal rôde sous le masque de la banale réalité quotidienne, remettant en question la normalité et l’innocence. First Love, Last Rites (1975) remporte le prix Somerset-Maugham en 1976.
@@ -549,7 +563,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a habité à Londres près de la gare St Pancras, une vaste maison victorienne qui apparaît dans son roman Samedi.
 Il demeure actuellement dans le Gloucestershire.
@@ -582,7 +598,9 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1976 : lauréat du prix Somerset-Maugham pour First Love, Last Rites (1975)
 1993 : lauréat du prix Femina étranger pour son roman L'Enfant volé
@@ -620,11 +638,48 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fin 2010, il a vendu plus de 15 millions de livres à travers le monde[réf. nécessaire]. Son roman Dans une coque de noix, paru en France chez Gallimard en avril 2017, atteint 27 000 ventes (source GFK) et L'Intérêt de l'enfant, adapté au cinéma sous le titre My Lady, 86 000[2].
-Romans
-Le Jardin de ciment (The Cement Garden, 1978), trad. Claire Malroux, Seuil (1980)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2010, il a vendu plus de 15 millions de livres à travers le monde[réf. nécessaire]. Son roman Dans une coque de noix, paru en France chez Gallimard en avril 2017, atteint 27 000 ventes (source GFK) et L'Intérêt de l'enfant, adapté au cinéma sous le titre My Lady, 86 000.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Jardin de ciment (The Cement Garden, 1978), trad. Claire Malroux, Seuil (1980)
 Un bonheur de rencontre / Étrange Séduction (The Comfort of Strangers, 1981), trad. Jean-Pierre Carasso, Seuil (1983) / Points Roman no 448 (1991)
 L'Enfant volé (The Child in Time, 1987, Whibread Novel of the Year Award), trad. Josée Strawson, Gallimard « Du monde entier » (1993, prix Femina étranger 1993)
 L'Innocent (The Innocent or the Special Relationship, 1990), trad. Jean Guiloineau, Seuil (1990)
@@ -640,59 +695,200 @@
 Dans une coque de noix (Nutshell, 2016), trad. France Camus-Pichon, Gallimard « Du monde entier » (2017)
 Une machine comme moi (Machines Like Me, 2019), trad. France Camus-Pichon, Gallimard « Du monde entier » (2019)
 Le Cafard (The Cockroach, 2019), trad. France Camus-Pichon, Gallimard (2020)
-Leçons (Lessons, 2022), trad. France Camus-Pichon, Gallimard (2023)
-Recueils de nouvelles
-Premier amour, derniers rites : traduction française de deux recueils de l'auteur, éd. Henri Veyrier “ Off ” (1978)
+Leçons (Lessons, 2022), trad. France Camus-Pichon, Gallimard (2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Premier amour, derniers rites : traduction française de deux recueils de l'auteur, éd. Henri Veyrier “ Off ” (1978)
 First Love, Last Rites, 1975, prix Somerset Maugham 1976
 In-Between the Sheets, 1978
 Reprise de Premier amour, dernier rites sous le titre Sous les draps et autres nouvelles, Gallimard « Du monde entier » (1997)
 Psychopolis et autres nouvelles. Paris : Gallimard, coll. "Folio" no 3628, 2001, 132 p.  (ISBN 2-07-042209-7). NB : extrait de Sous les draps et autres nouvelles.
-Mon roman pourpre aux pages parfumées et autres nouvelles. Paris : Gallimard, coll. "Folio 2 €" n°, 01/2019, ** p.  (ISBN 978-2-07-283100-3)
-Recueil de nouvelles pour la jeunesse
-Le Rêveur (The Daydreamer, 1994), trad. Josée Strawson, Gallimard-Jeunesse « Lecture Junior » no 53 (1995)
-Nouvelles
-Géométrie dans l'espace (Solid geometry) / trad. Françoise Cartano, in Galaxies intérieures : une anthologie de science-fiction moderne britannique (Night speculations, 1976), tome I, sous la direction de Maxim Jakubowski. Paris : Denoël, coll. "Présence du Futur" no 224, janvier 1977, p. 167-189.  (ISBN 2-207-30224-5)
+Mon roman pourpre aux pages parfumées et autres nouvelles. Paris : Gallimard, coll. "Folio 2 €" n°, 01/2019, ** p.  (ISBN 978-2-07-283100-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Rêveur (The Daydreamer, 1994), trad. Josée Strawson, Gallimard-Jeunesse « Lecture Junior » no 53 (1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Géométrie dans l'espace (Solid geometry) / trad. Françoise Cartano, in Galaxies intérieures : une anthologie de science-fiction moderne britannique (Night speculations, 1976), tome I, sous la direction de Maxim Jakubowski. Paris : Denoël, coll. "Présence du Futur" no 224, janvier 1977, p. 167-189.  (ISBN 2-207-30224-5)
 Les Écoliers (in Europe no 768, avril 1993)
 La Langue maternelle (NRF no 570, juin 2004)
 in Être un homme : 75 auteurs réunis / par Colum McCann. Paris : 10-18, coll. "Littérature étrangère" no 5113, septembre 2016.  (ISBN 978-2-264-06576-6)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ian_McEwan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En qualité de scénariste
-1975 : Jack Flea's Birthday Celebration (TV)
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En qualité de scénariste</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1975 : Jack Flea's Birthday Celebration (TV)
 1984 : Last Day of Summer (TV)
 1988 : Soursweet, film britannique réalisé par Mike Newell, avec Sylvia Chang, Danny Dun, Jodi Long
 1993 : Le Bon Fils (The Good Son), film américain réalisé par Joseph Ruben
 2017 : My Lady (The Children Act), film britannique réalisé par Richard Eyre, avec Emma Thompson, Stanley Tucci, Jason Watkins.
-2018 : Sur la plage de Chesil (On Chesil Beach), film américain réalisé par Dominic Cooke, d'après son roman éponyme, avec Saoirse Ronan, Billy Howle et Anne-Marie Duff.
-En qualité d'auteur adapté
-1983 : Guerre froide (The Ploughman's Lunch), film britannique réalisé par Richard Eyre, avec Jonathan Pryce, Tim Curry, Rosemary Harris
+2018 : Sur la plage de Chesil (On Chesil Beach), film américain réalisé par Dominic Cooke, d'après son roman éponyme, avec Saoirse Ronan, Billy Howle et Anne-Marie Duff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ian_McEwan</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En qualité d'auteur adapté</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1983 : Guerre froide (The Ploughman's Lunch), film britannique réalisé par Richard Eyre, avec Jonathan Pryce, Tim Curry, Rosemary Harris
 1988 : Schmetterlinge, film allemand réalisé par Wolfgang Becker, avec Bertram von Boxberg, Lena Boehncke, Dieter Oberholz
 1991 : Étrange Séduction (The Comfort of Strangers), film américano-italo-britannique réalisé par Paul Schrader, avec Christopher Walken, Rupert Everett, Natasha Richardson
 1993 : L'Innocent (The Innocent), film germano-britannique réalisé par John Schlesinger, avec Anthony Hopkins, Isabella Rossellini
